--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020620-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Saunders.Spring.020620-2.xlsx_with_dialog_acts.xlsx
@@ -969,12 +969,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
